--- a/Analysis/_TEMPLATE-COMMITS.xlsx
+++ b/Analysis/_TEMPLATE-COMMITS.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\David\Git Repositories\Good-First-Issue\Data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\David\Git Repositories\Good-First-Issue\Analysis\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{236E03BE-6A87-4DE5-9369-B7844AF637EF}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{40564C10-AA6B-4F27-89E8-4A37CBDE10B8}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="26295" yWindow="5850" windowWidth="38700" windowHeight="15435" xr2:uid="{BE161B33-A94A-4E68-B9E5-07DB50A2B4FE}"/>
+    <workbookView xWindow="12900" yWindow="3420" windowWidth="38700" windowHeight="15435" xr2:uid="{BE161B33-A94A-4E68-B9E5-07DB50A2B4FE}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
   <si>
     <t>Bug Fix (0/1)</t>
   </si>
@@ -47,31 +47,22 @@
     <t>Documentation(0/1)</t>
   </si>
   <si>
-    <t>Algorithmics(0/1)</t>
-  </si>
-  <si>
-    <t>Crytography / Security(0/1)</t>
-  </si>
-  <si>
-    <t>Optimization(0/1)</t>
-  </si>
-  <si>
-    <t>Graphics(0/1)</t>
-  </si>
-  <si>
-    <t>Other(0/1)</t>
-  </si>
-  <si>
     <t>Commit</t>
   </si>
   <si>
     <t>Developer Experience?</t>
   </si>
   <si>
-    <t>Other Type</t>
-  </si>
-  <si>
     <t>Related to a good-first-issue?</t>
+  </si>
+  <si>
+    <t>Other Information</t>
+  </si>
+  <si>
+    <t>Testing (0/1)</t>
+  </si>
+  <si>
+    <t>Refactoring (0/1)</t>
   </si>
 </sst>
 </file>
@@ -423,10 +414,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{62907D4F-821C-42A5-BB97-2A16C8296F6E}">
-  <dimension ref="A1:M1"/>
+  <dimension ref="A1:J1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A13" sqref="A13"/>
+      <selection activeCell="C23" sqref="C23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -439,20 +430,20 @@
     <col min="6" max="6" width="12.7109375" customWidth="1"/>
     <col min="7" max="7" width="14.42578125" customWidth="1"/>
     <col min="8" max="8" width="12.140625" customWidth="1"/>
-    <col min="9" max="9" width="21.140625" customWidth="1"/>
-    <col min="10" max="10" width="12.28515625" customWidth="1"/>
+    <col min="9" max="9" width="17.5703125" customWidth="1"/>
+    <col min="10" max="10" width="51.42578125" customWidth="1"/>
     <col min="13" max="13" width="9.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="B1" t="s">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="C1" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="D1" t="s">
         <v>0</v>
@@ -467,22 +458,13 @@
         <v>3</v>
       </c>
       <c r="H1" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="I1" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="J1" t="s">
-        <v>6</v>
-      </c>
-      <c r="K1" t="s">
         <v>7</v>
-      </c>
-      <c r="L1" t="s">
-        <v>8</v>
-      </c>
-      <c r="M1" t="s">
-        <v>11</v>
       </c>
     </row>
   </sheetData>

--- a/Analysis/_TEMPLATE-COMMITS.xlsx
+++ b/Analysis/_TEMPLATE-COMMITS.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\David\Git Repositories\Good-First-Issue\Analysis\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{40564C10-AA6B-4F27-89E8-4A37CBDE10B8}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8F62D1D1-A142-44A1-BF36-35E419FCF2E7}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="12900" yWindow="3420" windowWidth="38700" windowHeight="15435" xr2:uid="{BE161B33-A94A-4E68-B9E5-07DB50A2B4FE}"/>
+    <workbookView xWindow="6900" yWindow="5715" windowWidth="38700" windowHeight="15435" xr2:uid="{BE161B33-A94A-4E68-B9E5-07DB50A2B4FE}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
   <si>
     <t>Bug Fix (0/1)</t>
   </si>
@@ -47,9 +47,6 @@
     <t>Documentation(0/1)</t>
   </si>
   <si>
-    <t>Commit</t>
-  </si>
-  <si>
     <t>Developer Experience?</t>
   </si>
   <si>
@@ -63,6 +60,12 @@
   </si>
   <si>
     <t>Refactoring (0/1)</t>
+  </si>
+  <si>
+    <t>Link to PR</t>
+  </si>
+  <si>
+    <t>First Commit Pull Request</t>
   </si>
 </sst>
 </file>
@@ -414,10 +417,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{62907D4F-821C-42A5-BB97-2A16C8296F6E}">
-  <dimension ref="A1:J1"/>
+  <dimension ref="A1:K1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C23" sqref="C23"/>
+      <selection activeCell="J6" sqref="J6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -435,36 +438,39 @@
     <col min="13" max="13" width="9.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C1" t="s">
         <v>4</v>
       </c>
-      <c r="B1" t="s">
+      <c r="D1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E1" t="s">
+        <v>0</v>
+      </c>
+      <c r="F1" t="s">
+        <v>1</v>
+      </c>
+      <c r="G1" t="s">
+        <v>2</v>
+      </c>
+      <c r="H1" t="s">
+        <v>3</v>
+      </c>
+      <c r="I1" t="s">
+        <v>7</v>
+      </c>
+      <c r="J1" t="s">
+        <v>8</v>
+      </c>
+      <c r="K1" t="s">
         <v>6</v>
-      </c>
-      <c r="C1" t="s">
-        <v>5</v>
-      </c>
-      <c r="D1" t="s">
-        <v>0</v>
-      </c>
-      <c r="E1" t="s">
-        <v>1</v>
-      </c>
-      <c r="F1" t="s">
-        <v>2</v>
-      </c>
-      <c r="G1" t="s">
-        <v>3</v>
-      </c>
-      <c r="H1" t="s">
-        <v>8</v>
-      </c>
-      <c r="I1" t="s">
-        <v>9</v>
-      </c>
-      <c r="J1" t="s">
-        <v>7</v>
       </c>
     </row>
   </sheetData>

--- a/Analysis/_TEMPLATE-COMMITS.xlsx
+++ b/Analysis/_TEMPLATE-COMMITS.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22430"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22527"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\David\Git Repositories\Good-First-Issue\Analysis\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8F62D1D1-A142-44A1-BF36-35E419FCF2E7}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{67D34D95-9766-441B-9657-3B49335180F3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="6900" yWindow="5715" windowWidth="38700" windowHeight="15435" xr2:uid="{BE161B33-A94A-4E68-B9E5-07DB50A2B4FE}"/>
+    <workbookView xWindow="5280" yWindow="5280" windowWidth="38700" windowHeight="15435" xr2:uid="{BE161B33-A94A-4E68-B9E5-07DB50A2B4FE}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -420,7 +420,7 @@
   <dimension ref="A1:K1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J6" sqref="J6"/>
+      <selection activeCell="G5" sqref="G5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -429,12 +429,12 @@
     <col min="2" max="2" width="28.85546875" customWidth="1"/>
     <col min="3" max="3" width="23.5703125" customWidth="1"/>
     <col min="4" max="4" width="7.28515625" customWidth="1"/>
-    <col min="5" max="5" width="26.85546875" customWidth="1"/>
+    <col min="5" max="5" width="16.85546875" customWidth="1"/>
     <col min="6" max="6" width="12.7109375" customWidth="1"/>
     <col min="7" max="7" width="14.42578125" customWidth="1"/>
     <col min="8" max="8" width="12.140625" customWidth="1"/>
     <col min="9" max="9" width="17.5703125" customWidth="1"/>
-    <col min="10" max="10" width="51.42578125" customWidth="1"/>
+    <col min="10" max="10" width="18" customWidth="1"/>
     <col min="13" max="13" width="9.140625" customWidth="1"/>
   </cols>
   <sheetData>

--- a/Analysis/_TEMPLATE-COMMITS.xlsx
+++ b/Analysis/_TEMPLATE-COMMITS.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22527"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22624"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\David\Git Repositories\Good-First-Issue\Analysis\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{67D34D95-9766-441B-9657-3B49335180F3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{140C2762-5FAD-477D-B272-B31CBD324F50}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5280" yWindow="5280" windowWidth="38700" windowHeight="15435" xr2:uid="{BE161B33-A94A-4E68-B9E5-07DB50A2B4FE}"/>
+    <workbookView xWindow="3240" yWindow="3240" windowWidth="38700" windowHeight="15435" xr2:uid="{BE161B33-A94A-4E68-B9E5-07DB50A2B4FE}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
